--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_58_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_58_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.988470735099086, 4.403442125145808]</t>
+          <t>[3.991838717926199, 4.400074142318695]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.0287323537714963, 0.2324294018258124]</t>
+          <t>[-0.028726044449511434, 0.23242309250382753]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.1232044647971351</v>
+        <v>0.1231868252582828</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1232044647971351</v>
+        <v>0.1231868252582828</v>
       </c>
       <c r="W2" t="n">
         <v>0.5534134134134305</v>
